--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-15 Trương Lâm Khanh 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-15 Trương Lâm Khanh 8-2024.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>214285.7142857143</v>
       </c>
     </row>
     <row r="4">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>142857.1428571429</v>
       </c>
     </row>
     <row r="14">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>214285.7142857143</v>
       </c>
     </row>
     <row r="24">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>214285.7142857143</v>
       </c>
     </row>
     <row r="32">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>142857.1428571429</v>
       </c>
     </row>
     <row r="33">
@@ -767,17 +767,17 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>214285.7142857143</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tổng lương</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>571428.5714285715</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-15 Trương Lâm Khanh 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-15 Trương Lâm Khanh 8-2024.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>214285.7142857143</v>
+        <v>428571.4285714286</v>
       </c>
     </row>
     <row r="4">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142857.1428571429</v>
+        <v>285714.2857142857</v>
       </c>
     </row>
     <row r="14">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>214285.7142857143</v>
+        <v>428571.4285714286</v>
       </c>
     </row>
     <row r="24">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>214285.7142857143</v>
+        <v>428571.4285714286</v>
       </c>
     </row>
     <row r="32">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>142857.1428571429</v>
+        <v>285714.2857142857</v>
       </c>
     </row>
     <row r="33">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>214285.7142857143</v>
+        <v>428571.4285714286</v>
       </c>
     </row>
     <row r="34">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571428.5714285715</v>
+        <v>1142857.142857143</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-15 Trương Lâm Khanh 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-15 Trương Lâm Khanh 8-2024.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Lương" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn phụ phẫu 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,6 +433,134 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>643</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Trần Thị Nhi</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -457,7 +586,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +596,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>428571.4285714286</v>
+        <v>750000.0000000001</v>
       </c>
     </row>
     <row r="4">
@@ -517,7 +646,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="9">
@@ -537,7 +666,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-5000000</v>
       </c>
     </row>
     <row r="11">
@@ -567,7 +696,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>285714.2857142857</v>
+        <v>500000.0000000001</v>
       </c>
     </row>
     <row r="14">
@@ -637,7 +766,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +796,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>428571.4285714286</v>
+        <v>750000.0000000001</v>
       </c>
     </row>
     <row r="24">
@@ -737,7 +866,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31">
@@ -747,7 +876,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>428571.4285714286</v>
+        <v>-4200000</v>
       </c>
     </row>
     <row r="32">
@@ -757,7 +886,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285714.2857142857</v>
+        <v>500000.0000000001</v>
       </c>
     </row>
     <row r="33">
@@ -767,7 +896,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>428571.4285714286</v>
+        <v>750000.0000000001</v>
       </c>
     </row>
     <row r="34">
@@ -777,7 +906,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1142857.142857143</v>
+        <v>-2950000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-15 Trương Lâm Khanh 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-15 Trương Lâm Khanh 8-2024.xlsx
@@ -415,14 +415,289 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>655</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>trương thị vẹn</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Phun môi</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>656</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mẹ khanh </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Phun môi</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="I3" t="n">
+        <v/>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>657</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>truương thị luyến</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="I4" t="n">
+        <v/>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>6700000</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6700000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6700000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>670000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -586,7 +861,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -596,7 +871,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>750000.0000000001</v>
+        <v>1821428.571428571</v>
       </c>
     </row>
     <row r="4">
@@ -696,7 +971,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>500000.0000000001</v>
+        <v>1214285.714285714</v>
       </c>
     </row>
     <row r="14">
@@ -796,7 +1071,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>750000.0000000001</v>
+        <v>1821428.571428571</v>
       </c>
     </row>
     <row r="24">
@@ -806,7 +1081,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>670000</v>
       </c>
     </row>
     <row r="25">
@@ -876,7 +1151,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-4200000</v>
+        <v>-3128571.428571429</v>
       </c>
     </row>
     <row r="32">
@@ -886,7 +1161,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>500000.0000000001</v>
+        <v>1214285.714285714</v>
       </c>
     </row>
     <row r="33">
@@ -896,7 +1171,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>750000.0000000001</v>
+        <v>2491428.571428571</v>
       </c>
     </row>
     <row r="34">
@@ -906,7 +1181,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-2950000</v>
+        <v>577142.857142857</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-15 Trương Lâm Khanh 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-15 Trương Lâm Khanh 8-2024.xlsx
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1821428.571428571</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="4">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1214285.714285714</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="14">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1821428.571428571</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="24">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-3128571.428571429</v>
+        <v>-2700000</v>
       </c>
     </row>
     <row r="32">
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1214285.714285714</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="33">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2491428.571428571</v>
+        <v>2920000</v>
       </c>
     </row>
     <row r="34">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>577142.857142857</v>
+        <v>1720000.000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-15 Trương Lâm Khanh 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-15 Trương Lâm Khanh 8-2024.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,10 +545,10 @@
         <v>1500000</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N2" t="n">
-        <v>150000</v>
+        <v>225000</v>
       </c>
     </row>
     <row r="3">
@@ -601,10 +601,10 @@
         <v>1000000</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N3" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="4">
@@ -657,44 +657,212 @@
         <v>4200000</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N4" t="n">
-        <v>420000</v>
+        <v>630000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>699</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị My Sa</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="I5" t="n">
+        <v/>
+      </c>
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3750000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>700</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị My Sa</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Xét nghiệm máu</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>500000</v>
+      </c>
+      <c r="I6" t="n">
+        <v/>
+      </c>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v>500000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>500000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N6" t="n">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>701</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Ngọc Thượng</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="I7" t="n">
+        <v/>
+      </c>
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N7" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>6700000</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6700000</v>
-      </c>
-      <c r="L5" t="n">
-        <v>6700000</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>670000</v>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>34200000</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>34200000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>34200000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5130000</v>
       </c>
     </row>
   </sheetData>
@@ -861,7 +1029,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -871,7 +1039,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2250000</v>
+        <v>2678571.428571429</v>
       </c>
     </row>
     <row r="4">
@@ -881,7 +1049,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4125000</v>
       </c>
     </row>
     <row r="5">
@@ -971,7 +1139,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1500000</v>
+        <v>1785714.285714286</v>
       </c>
     </row>
     <row r="14">
@@ -1071,7 +1239,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2250000</v>
+        <v>2678571.428571429</v>
       </c>
     </row>
     <row r="24">
@@ -1081,7 +1249,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>670000</v>
+        <v>1005000</v>
       </c>
     </row>
     <row r="25">
@@ -1151,7 +1319,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-2700000</v>
+        <v>1853571.428571429</v>
       </c>
     </row>
     <row r="32">
@@ -1161,7 +1329,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1500000</v>
+        <v>1785714.285714286</v>
       </c>
     </row>
     <row r="33">
@@ -1171,7 +1339,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2920000</v>
+        <v>3683571.428571429</v>
       </c>
     </row>
     <row r="34">
@@ -1181,7 +1349,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1720000.000000001</v>
+        <v>7322857.142857144</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-15 Trương Lâm Khanh 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-15 Trương Lâm Khanh 8-2024.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -834,35 +834,147 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>708</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>08-31-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Hân</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="I8" t="n">
+        <v/>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>709</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08-31-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Hân</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Xét nghiệm máu</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>500000</v>
+      </c>
+      <c r="I9" t="n">
+        <v/>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v>500000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>500000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N9" t="n">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>34200000</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>34200000</v>
-      </c>
-      <c r="L8" t="n">
-        <v>34200000</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5130000</v>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>54700000</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>54700000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>42700000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6405000</v>
       </c>
     </row>
   </sheetData>
@@ -1019,7 +1131,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -1029,7 +1141,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -1039,7 +1151,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2678571.428571429</v>
+        <v>2785714.285714286</v>
       </c>
     </row>
     <row r="4">
@@ -1049,7 +1161,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4125000</v>
+        <v>5400000</v>
       </c>
     </row>
     <row r="5">
@@ -1139,7 +1251,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1785714.285714286</v>
+        <v>1857142.857142857</v>
       </c>
     </row>
     <row r="14">
@@ -1239,7 +1351,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2678571.428571429</v>
+        <v>2785714.285714286</v>
       </c>
     </row>
     <row r="24">
@@ -1319,7 +1431,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1853571.428571429</v>
+        <v>3235714.285714285</v>
       </c>
     </row>
     <row r="32">
@@ -1329,7 +1441,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1785714.285714286</v>
+        <v>1857142.857142857</v>
       </c>
     </row>
     <row r="33">
@@ -1339,7 +1451,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3683571.428571429</v>
+        <v>3790714.285714286</v>
       </c>
     </row>
     <row r="34">
@@ -1349,7 +1461,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7322857.142857144</v>
+        <v>8883571.428571429</v>
       </c>
     </row>
   </sheetData>
